--- a/Team05Report 10.8.xlsx
+++ b/Team05Report 10.8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vctu\OneDrive\Code\Python\2019fall-Group5-555B-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED1B253-336A-452A-8FDC-4E5A554AD702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FED1B253-336A-452A-8FDC-4E5A554AD702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{714592C0-CE5F-498F-AB0C-29B4BC3A9AEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="135">
   <si>
     <t>Initials</t>
   </si>
@@ -508,6 +509,25 @@
     <t xml:space="preserve">Correct the wrong marriage relationships that family members should not marry with each other </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>https://github.com/KbyteTutu/2019fall-Group5-555B-Project</t>
+  </si>
+  <si>
+    <r>
+      <t>Url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -517,7 +537,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -553,6 +573,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -691,10 +725,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -754,9 +789,12 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1292,7 +1330,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1562,7 +1600,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -1785,7 +1823,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2008,7 +2046,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2278,7 +2316,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -2501,7 +2539,7 @@
           <a:effectLst/>
           <a:extLst>
             <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-              <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+              <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:spPr>
@@ -3672,18 +3710,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.4609375" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.84375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3700,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3751,7 +3791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -3785,21 +3825,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3810,12 +3850,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3825,6 +3869,7 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{8BFCE1B1-E6FA-4038-92C5-C14A127ED324}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -3838,21 +3883,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.4609375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="73.3828125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.4609375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.84375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -3869,7 +3914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3886,7 +3931,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3903,7 +3948,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3920,7 +3965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3937,7 +3982,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -3954,7 +3999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3971,7 +4016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3988,7 +4033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -4005,7 +4050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -4022,7 +4067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -4290,7 +4335,7 @@
       <c r="IU11" s="32"/>
       <c r="IV11" s="32"/>
     </row>
-    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -4558,7 +4603,7 @@
       <c r="IU12" s="32"/>
       <c r="IV12" s="32"/>
     </row>
-    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -4826,7 +4871,7 @@
       <c r="IU13" s="32"/>
       <c r="IV13" s="32"/>
     </row>
-    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -5094,7 +5139,7 @@
       <c r="IU14" s="32"/>
       <c r="IV14" s="32"/>
     </row>
-    <row r="15" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -5362,7 +5407,7 @@
       <c r="IU15" s="32"/>
       <c r="IV15" s="32"/>
     </row>
-    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -5630,7 +5675,7 @@
       <c r="IU16" s="32"/>
       <c r="IV16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -5647,7 +5692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -5664,7 +5709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -5681,7 +5726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2</v>
       </c>
@@ -5698,7 +5743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -5733,18 +5778,18 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="256" width="10.81640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="8" customWidth="1"/>
+    <col min="7" max="256" width="10.84375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -5756,7 +5801,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5768,7 +5813,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
@@ -5780,7 +5825,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5790,7 +5835,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -5802,7 +5847,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -5814,7 +5859,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5824,7 +5869,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>64</v>
       </c>
@@ -5836,7 +5881,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5846,7 +5891,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5856,7 +5901,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5866,7 +5911,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5876,7 +5921,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5886,7 +5931,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -5910,7 +5955,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -5928,7 +5973,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
@@ -5954,7 +5999,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -5980,7 +6025,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -6006,7 +6051,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -6032,7 +6077,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="20"/>
@@ -6042,7 +6087,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6052,7 +6097,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6062,7 +6107,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6072,7 +6117,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6082,7 +6127,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6092,7 +6137,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6102,7 +6147,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6112,7 +6157,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6122,7 +6167,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6132,7 +6177,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6142,7 +6187,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6152,7 +6197,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6162,7 +6207,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6172,7 +6217,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6182,7 +6227,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6192,7 +6237,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6202,7 +6247,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6212,7 +6257,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6222,7 +6267,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6251,18 +6296,18 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="22" customWidth="1"/>
-    <col min="7" max="256" width="10.81640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.15234375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.23046875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="22" customWidth="1"/>
+    <col min="7" max="256" width="10.84375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -6283,7 +6328,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>42271</v>
       </c>
@@ -6298,7 +6343,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>42284</v>
       </c>
@@ -6319,7 +6364,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6328,7 +6373,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6337,7 +6382,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6346,7 +6391,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6355,7 +6400,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6364,7 +6409,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6373,7 +6418,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6382,7 +6427,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6391,7 +6436,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6400,7 +6445,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6409,7 +6454,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6418,7 +6463,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6427,7 +6472,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6436,7 +6481,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6445,7 +6490,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6454,7 +6499,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6463,7 +6508,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6472,7 +6517,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6481,7 +6526,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6490,7 +6535,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6499,7 +6544,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6508,7 +6553,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6517,7 +6562,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6544,20 +6589,20 @@
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="24" customWidth="1"/>
-    <col min="9" max="256" width="10.81640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.921875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.23046875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.69140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.69140625" style="24" customWidth="1"/>
+    <col min="9" max="256" width="10.84375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6586,7 +6631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -6615,7 +6660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -6644,7 +6689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -6673,7 +6718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -6702,7 +6747,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -6731,7 +6776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -6760,7 +6805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -6789,7 +6834,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -6818,7 +6863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -6847,7 +6892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -6876,7 +6921,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
@@ -6887,7 +6932,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="28"/>
       <c r="C13" s="3"/>
@@ -6898,7 +6943,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="25" t="s">
         <v>81</v>
@@ -6911,7 +6956,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="25" t="s">
         <v>112</v>
@@ -6924,7 +6969,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="25" t="s">
         <v>82</v>
@@ -6937,7 +6982,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="37" t="s">
         <v>113</v>
@@ -6950,7 +6995,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
@@ -6961,7 +7006,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="28"/>
       <c r="C19" s="3"/>
@@ -6972,7 +7017,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="25" t="s">
         <v>83</v>
@@ -6985,7 +7030,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="37" t="s">
         <v>111</v>
@@ -7016,16 +7061,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="54.453125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" style="29" customWidth="1"/>
-    <col min="5" max="256" width="10.81640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.4609375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.07421875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.921875" style="29" customWidth="1"/>
+    <col min="5" max="256" width="10.84375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7054,7 +7099,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -7077,7 +7122,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7100,7 +7145,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
@@ -7123,7 +7168,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
@@ -7146,7 +7191,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -7169,7 +7214,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -7192,7 +7237,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -7215,7 +7260,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -7238,7 +7283,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -7261,7 +7306,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -7300,12 +7345,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="10.81640625" style="30" customWidth="1"/>
+    <col min="1" max="256" width="10.84375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7334,7 +7379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7345,7 +7390,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7356,7 +7401,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7367,7 +7412,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7378,7 +7423,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7389,7 +7434,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7400,7 +7445,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7411,7 +7456,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7422,7 +7467,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7449,12 +7494,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="10.81640625" style="31" customWidth="1"/>
+    <col min="1" max="256" width="10.84375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7483,7 +7528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7494,7 +7539,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7505,7 +7550,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7516,7 +7561,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7527,7 +7572,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7538,7 +7583,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7549,7 +7594,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7560,7 +7605,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7571,7 +7616,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7596,19 +7641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="56.90625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="32" customWidth="1"/>
-    <col min="4" max="256" width="10.81640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="56.921875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="32" customWidth="1"/>
+    <col min="4" max="256" width="10.84375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -7621,7 +7666,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="57.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
@@ -7634,7 +7679,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>40</v>
       </c>
@@ -7647,7 +7692,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>42</v>
       </c>
@@ -7660,7 +7705,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>44</v>
       </c>
@@ -7673,7 +7718,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="45.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>46</v>
       </c>
@@ -7686,7 +7731,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="36.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
@@ -7699,7 +7744,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>51</v>
       </c>
@@ -7712,7 +7757,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>53</v>
       </c>
@@ -7725,7 +7770,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>55</v>
       </c>
@@ -7738,7 +7783,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="60.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>57</v>
       </c>
@@ -7751,7 +7796,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
@@ -7764,7 +7809,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -7777,7 +7822,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="64.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -7790,7 +7835,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -7803,7 +7848,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>89</v>
       </c>
@@ -7816,7 +7861,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -7829,7 +7874,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
@@ -7842,7 +7887,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -7855,7 +7900,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>93</v>
       </c>
@@ -7868,7 +7913,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
@@ -7881,154 +7926,154 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="33"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="33"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="33"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="33"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="33"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="127.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="33"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="33"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="33"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="33"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="33"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="33"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="16.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="33"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="33"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="33"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="33"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="33"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="33"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="33"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="33"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="33"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="33"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="33"/>
